--- a/academycity/data/training/datasets/excel/upload/soldiers_list.xlsx
+++ b/academycity/data/training/datasets/excel/upload/soldiers_list.xlsx
@@ -2477,15 +2477,15 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right style="medium"/>
-      <top/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="medium"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -2741,7 +2741,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2753,23 +2753,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2777,11 +2773,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2825,6 +2821,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2841,11 +2841,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2853,11 +2853,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3109,7 +3109,7 @@
   <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3177,17 +3177,17 @@
       <c r="B3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="15" t="n">
         <v>1807220104</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="15" t="n">
         <v>10221357</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3198,17 +3198,17 @@
       <c r="B4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="15" t="n">
         <v>1807220541</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="15" t="n">
         <v>9221360</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3219,17 +3219,17 @@
       <c r="B5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="15" t="n">
         <v>1807220542</v>
       </c>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="15" t="n">
         <v>10221358</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3240,17 +3240,17 @@
       <c r="B6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="15" t="n">
         <v>1807220102</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="15" t="n">
         <v>9221291</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3261,17 +3261,17 @@
       <c r="B7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="15" t="n">
         <v>1807220101</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F7" s="15" t="n">
         <v>9221292</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3282,17 +3282,17 @@
       <c r="B8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="15" t="n">
         <v>1807220543</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="15" t="n">
         <v>9221293</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3303,17 +3303,17 @@
       <c r="B9" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="15" t="n">
         <v>1807220544</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="15" t="n">
         <v>9221294</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3324,17 +3324,17 @@
       <c r="B10" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="15" t="n">
         <v>1807220545</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="15" t="n">
         <v>9221295</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       <c r="B11" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="15" t="n">
         <v>1807220546</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="15" t="n">
         <v>9221296</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3366,17 +3366,17 @@
       <c r="B12" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="15" t="n">
         <v>1807220547</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="15" t="n">
         <v>9221297</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3387,17 +3387,17 @@
       <c r="B13" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="15" t="n">
         <v>1807220548</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="15" t="n">
         <v>9221298</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3408,17 +3408,17 @@
       <c r="B14" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="15" t="n">
         <v>1807220549</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="15" t="n">
         <v>9221299</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3429,17 +3429,17 @@
       <c r="B15" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="15" t="n">
         <v>1807220550</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="15" t="n">
         <v>9221300</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3450,17 +3450,17 @@
       <c r="B16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="15" t="n">
         <v>1807220531</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="15" t="n">
         <v>9221201</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3471,17 +3471,17 @@
       <c r="B17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="15" t="n">
         <v>1807220532</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="15" t="n">
         <v>9221202</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3492,17 +3492,17 @@
       <c r="B18" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="15" t="n">
         <v>1807220504</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="15" t="n">
         <v>9221244</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3513,17 +3513,17 @@
       <c r="B19" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="15" t="n">
         <v>1807220533</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="15" t="n">
         <v>9221203</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3534,17 +3534,17 @@
       <c r="B20" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="15" t="n">
         <v>1807220534</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="15" t="n">
         <v>9221204</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3555,17 +3555,17 @@
       <c r="B21" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="15" t="n">
         <v>1807220535</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="15" t="n">
         <v>9221205</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       <c r="B22" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="15" t="n">
         <v>1807220536</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="15" t="n">
         <v>9221206</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3597,17 +3597,17 @@
       <c r="B23" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="15" t="n">
         <v>1807220537</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="15" t="n">
         <v>9221207</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3618,17 +3618,17 @@
       <c r="B24" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="15" t="n">
         <v>1807220538</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="15" t="n">
         <v>9221208</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3639,17 +3639,17 @@
       <c r="B25" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="16" t="n">
+      <c r="E25" s="15" t="n">
         <v>1807220539</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="15" t="n">
         <v>9221209</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3660,17 +3660,17 @@
       <c r="B26" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="15" t="n">
         <v>1807220540</v>
       </c>
-      <c r="F26" s="16" t="n">
+      <c r="F26" s="15" t="n">
         <v>9221210</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3681,17 +3681,17 @@
       <c r="B27" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="16" t="n">
+      <c r="F27" s="15" t="n">
         <v>9221311</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3702,17 +3702,17 @@
       <c r="B28" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="16" t="n">
+      <c r="E28" s="15" t="n">
         <v>1807220402</v>
       </c>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="15" t="n">
         <v>9221312</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3723,17 +3723,17 @@
       <c r="B29" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="16" t="n">
+      <c r="E29" s="15" t="n">
         <v>1807220403</v>
       </c>
-      <c r="F29" s="16" t="n">
+      <c r="F29" s="15" t="n">
         <v>9221313</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3744,17 +3744,17 @@
       <c r="B30" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="16" t="n">
+      <c r="E30" s="15" t="n">
         <v>1807220404</v>
       </c>
-      <c r="F30" s="16" t="n">
+      <c r="F30" s="15" t="n">
         <v>9221314</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3765,17 +3765,17 @@
       <c r="B31" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="15" t="n">
         <v>1807220405</v>
       </c>
-      <c r="F31" s="16" t="n">
+      <c r="F31" s="15" t="n">
         <v>9221315</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3786,17 +3786,17 @@
       <c r="B32" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="15" t="n">
         <v>1807220406</v>
       </c>
-      <c r="F32" s="16" t="n">
+      <c r="F32" s="15" t="n">
         <v>9221316</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3807,17 +3807,17 @@
       <c r="B33" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="15" t="n">
         <v>1807220407</v>
       </c>
-      <c r="F33" s="16" t="n">
+      <c r="F33" s="15" t="n">
         <v>9221317</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3828,17 +3828,17 @@
       <c r="B34" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="15" t="n">
         <v>1807220408</v>
       </c>
-      <c r="F34" s="16" t="n">
+      <c r="F34" s="15" t="n">
         <v>9221318</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3849,17 +3849,17 @@
       <c r="B35" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="15" t="n">
         <v>1807220409</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="15" t="n">
         <v>9221319</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3870,17 +3870,17 @@
       <c r="B36" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="16" t="n">
+      <c r="E36" s="15" t="n">
         <v>1807220410</v>
       </c>
-      <c r="F36" s="16" t="n">
+      <c r="F36" s="15" t="n">
         <v>9221320</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3891,17 +3891,17 @@
       <c r="B37" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="16" t="n">
+      <c r="E37" s="15" t="n">
         <v>1807220501</v>
       </c>
-      <c r="F37" s="16" t="n">
+      <c r="F37" s="15" t="n">
         <v>9221241</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3912,17 +3912,17 @@
       <c r="B38" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="16" t="n">
+      <c r="E38" s="15" t="n">
         <v>1807220502</v>
       </c>
-      <c r="F38" s="16" t="n">
+      <c r="F38" s="15" t="n">
         <v>9221242</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3933,17 +3933,17 @@
       <c r="B39" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="16" t="n">
+      <c r="E39" s="15" t="n">
         <v>1807220505</v>
       </c>
-      <c r="F39" s="18" t="n">
+      <c r="F39" s="17" t="n">
         <v>9221248</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3954,17 +3954,17 @@
       <c r="B40" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="15" t="n">
         <v>1807220079</v>
       </c>
-      <c r="F40" s="18" t="n">
+      <c r="F40" s="17" t="n">
         <v>9221379</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3975,17 +3975,17 @@
       <c r="B41" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="15" t="n">
         <v>1807220073</v>
       </c>
-      <c r="F41" s="18" t="n">
+      <c r="F41" s="17" t="n">
         <v>9221373</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3996,17 +3996,17 @@
       <c r="B42" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="16" t="n">
+      <c r="E42" s="15" t="n">
         <v>1807220075</v>
       </c>
-      <c r="F42" s="18" t="n">
+      <c r="F42" s="17" t="n">
         <v>9221375</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4017,17 +4017,17 @@
       <c r="B43" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="16" t="n">
+      <c r="E43" s="15" t="n">
         <v>1807220510</v>
       </c>
-      <c r="F43" s="18" t="n">
+      <c r="F43" s="17" t="n">
         <v>9221250</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4035,20 +4035,20 @@
       <c r="A44" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="n">
+      <c r="B44" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="16" t="n">
+      <c r="E44" s="15" t="n">
         <v>1807220074</v>
       </c>
-      <c r="F44" s="18" t="n">
+      <c r="F44" s="17" t="n">
         <v>9221374</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4056,20 +4056,20 @@
       <c r="A45" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="n">
+      <c r="B45" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="15" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="16" t="n">
+      <c r="E45" s="15" t="n">
         <v>1807220509</v>
       </c>
-      <c r="F45" s="18" t="n">
+      <c r="F45" s="17" t="n">
         <v>9221249</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4077,20 +4077,20 @@
       <c r="A46" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="n">
+      <c r="B46" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="18"/>
+      <c r="D46" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="16" t="n">
+      <c r="E46" s="15" t="n">
         <v>1807220071</v>
       </c>
-      <c r="F46" s="18" t="n">
+      <c r="F46" s="17" t="n">
         <v>9221371</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4098,20 +4098,20 @@
       <c r="A47" s="7" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="n">
+      <c r="B47" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="16" t="n">
+      <c r="E47" s="15" t="n">
         <v>1807220072</v>
       </c>
-      <c r="F47" s="18" t="n">
+      <c r="F47" s="17" t="n">
         <v>9221372</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4119,20 +4119,20 @@
       <c r="A48" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="n">
+      <c r="B48" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="15" t="s">
+      <c r="C48" s="18"/>
+      <c r="D48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="16" t="n">
+      <c r="E48" s="15" t="n">
         <v>1807220076</v>
       </c>
-      <c r="F48" s="18" t="n">
+      <c r="F48" s="17" t="n">
         <v>9221376</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4140,20 +4140,20 @@
       <c r="A49" s="7" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="18" t="n">
+      <c r="B49" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="15" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="16" t="n">
+      <c r="E49" s="15" t="n">
         <v>1807220078</v>
       </c>
-      <c r="F49" s="18" t="n">
+      <c r="F49" s="17" t="n">
         <v>9221378</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4161,20 +4161,20 @@
       <c r="A50" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="n">
+      <c r="B50" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="16" t="n">
+      <c r="E50" s="15" t="n">
         <v>1807220077</v>
       </c>
-      <c r="F50" s="18" t="n">
+      <c r="F50" s="17" t="n">
         <v>9221377</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4185,17 +4185,17 @@
       <c r="B51" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="16" t="n">
+      <c r="E51" s="15" t="n">
         <v>1807220503</v>
       </c>
-      <c r="F51" s="16" t="n">
+      <c r="F51" s="15" t="n">
         <v>9221243</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4203,20 +4203,20 @@
       <c r="A52" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="20" t="n">
+      <c r="B52" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="22" t="n">
         <v>9221246</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4224,20 +4224,20 @@
       <c r="A53" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="25" t="n">
+      <c r="B53" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="28" t="n">
+      <c r="E53" s="27" t="n">
         <v>1807220085</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="24" t="n">
         <v>9221340</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4248,17 +4248,17 @@
       <c r="B54" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="16" t="n">
+      <c r="E54" s="15" t="n">
         <v>1807220135</v>
       </c>
-      <c r="F54" s="18" t="n">
+      <c r="F54" s="17" t="n">
         <v>9221386</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4269,17 +4269,17 @@
       <c r="B55" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15" t="s">
+      <c r="C55" s="9"/>
+      <c r="D55" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="16" t="n">
+      <c r="E55" s="15" t="n">
         <v>1807220145</v>
       </c>
-      <c r="F55" s="16" t="n">
+      <c r="F55" s="15" t="n">
         <v>9221367</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4290,17 +4290,17 @@
       <c r="B56" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15" t="s">
+      <c r="C56" s="9"/>
+      <c r="D56" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="16" t="n">
+      <c r="E56" s="15" t="n">
         <v>1807220573</v>
       </c>
-      <c r="F56" s="16" t="n">
+      <c r="F56" s="15" t="n">
         <v>9221226</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4311,17 +4311,17 @@
       <c r="B57" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15" t="s">
+      <c r="C57" s="9"/>
+      <c r="D57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="16" t="n">
+      <c r="E57" s="15" t="n">
         <v>1807220574</v>
       </c>
-      <c r="F57" s="16" t="n">
+      <c r="F57" s="15" t="n">
         <v>9221225</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4332,17 +4332,17 @@
       <c r="B58" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="16" t="n">
+      <c r="E58" s="15" t="n">
         <v>1807220575</v>
       </c>
-      <c r="F58" s="16" t="n">
+      <c r="F58" s="15" t="n">
         <v>9221224</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4353,17 +4353,17 @@
       <c r="B59" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="16" t="n">
+      <c r="E59" s="15" t="n">
         <v>1807220576</v>
       </c>
-      <c r="F59" s="16" t="n">
+      <c r="F59" s="15" t="n">
         <v>9221223</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4374,17 +4374,17 @@
       <c r="B60" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="16" t="n">
+      <c r="E60" s="15" t="n">
         <v>1807220577</v>
       </c>
-      <c r="F60" s="16" t="n">
+      <c r="F60" s="15" t="n">
         <v>9221222</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4395,17 +4395,17 @@
       <c r="B61" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15" t="s">
+      <c r="C61" s="9"/>
+      <c r="D61" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="16" t="n">
+      <c r="E61" s="15" t="n">
         <v>1807220578</v>
       </c>
-      <c r="F61" s="16" t="n">
+      <c r="F61" s="15" t="n">
         <v>9221221</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4416,17 +4416,17 @@
       <c r="B62" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="16" t="n">
+      <c r="E62" s="15" t="n">
         <v>1807220579</v>
       </c>
-      <c r="F62" s="16" t="n">
+      <c r="F62" s="15" t="n">
         <v>9221229</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4437,17 +4437,17 @@
       <c r="B63" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="16" t="n">
+      <c r="E63" s="15" t="n">
         <v>1807220580</v>
       </c>
-      <c r="F63" s="16" t="n">
+      <c r="F63" s="15" t="n">
         <v>9221270</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4458,17 +4458,17 @@
       <c r="B64" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="16" t="n">
+      <c r="E64" s="15" t="n">
         <v>1807220561</v>
       </c>
-      <c r="F64" s="16" t="n">
+      <c r="F64" s="15" t="n">
         <v>9221269</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4479,17 +4479,17 @@
       <c r="B65" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="9"/>
+      <c r="D65" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="16" t="n">
+      <c r="E65" s="15" t="n">
         <v>1807220562</v>
       </c>
-      <c r="F65" s="16" t="n">
+      <c r="F65" s="15" t="n">
         <v>9221268</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4500,17 +4500,17 @@
       <c r="B66" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="16" t="n">
+      <c r="E66" s="15" t="n">
         <v>1807220563</v>
       </c>
-      <c r="F66" s="16" t="n">
+      <c r="F66" s="15" t="n">
         <v>9221267</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4521,17 +4521,17 @@
       <c r="B67" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="9"/>
+      <c r="D67" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="16" t="n">
+      <c r="E67" s="15" t="n">
         <v>1807220564</v>
       </c>
-      <c r="F67" s="16" t="n">
+      <c r="F67" s="15" t="n">
         <v>9221266</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4542,17 +4542,17 @@
       <c r="B68" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15" t="s">
+      <c r="C68" s="9"/>
+      <c r="D68" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="16" t="n">
+      <c r="E68" s="15" t="n">
         <v>1807220565</v>
       </c>
-      <c r="F68" s="16" t="n">
+      <c r="F68" s="15" t="n">
         <v>9221265</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4563,17 +4563,17 @@
       <c r="B69" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="9"/>
+      <c r="D69" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="16" t="n">
+      <c r="E69" s="15" t="n">
         <v>1807220566</v>
       </c>
-      <c r="F69" s="16" t="n">
+      <c r="F69" s="15" t="n">
         <v>9221264</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4584,17 +4584,17 @@
       <c r="B70" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="9"/>
+      <c r="D70" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E70" s="16" t="n">
+      <c r="E70" s="15" t="n">
         <v>1807220567</v>
       </c>
-      <c r="F70" s="16" t="n">
+      <c r="F70" s="15" t="n">
         <v>9221263</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4605,17 +4605,17 @@
       <c r="B71" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15" t="s">
+      <c r="C71" s="9"/>
+      <c r="D71" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="16" t="n">
+      <c r="E71" s="15" t="n">
         <v>1807220568</v>
       </c>
-      <c r="F71" s="16" t="n">
+      <c r="F71" s="15" t="n">
         <v>9221262</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4626,17 +4626,17 @@
       <c r="B72" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="16" t="n">
+      <c r="E72" s="15" t="n">
         <v>1807220569</v>
       </c>
-      <c r="F72" s="16" t="n">
+      <c r="F72" s="15" t="n">
         <v>9221261</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4647,17 +4647,17 @@
       <c r="B73" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="9"/>
+      <c r="D73" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="16" t="n">
+      <c r="E73" s="15" t="n">
         <v>1807220570</v>
       </c>
-      <c r="F73" s="16" t="n">
+      <c r="F73" s="15" t="n">
         <v>9221271</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4668,17 +4668,17 @@
       <c r="B74" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="16" t="n">
+      <c r="E74" s="15" t="n">
         <v>1807220551</v>
       </c>
-      <c r="F74" s="16" t="n">
+      <c r="F74" s="15" t="n">
         <v>9221272</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4689,17 +4689,17 @@
       <c r="B75" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15" t="s">
+      <c r="C75" s="9"/>
+      <c r="D75" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="16" t="n">
+      <c r="E75" s="15" t="n">
         <v>1807220552</v>
       </c>
-      <c r="F75" s="16" t="n">
+      <c r="F75" s="15" t="n">
         <v>9221273</v>
       </c>
-      <c r="G75" s="17" t="s">
+      <c r="G75" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4710,17 +4710,17 @@
       <c r="B76" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15" t="s">
+      <c r="C76" s="9"/>
+      <c r="D76" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="16" t="n">
+      <c r="E76" s="15" t="n">
         <v>1807220553</v>
       </c>
-      <c r="F76" s="16" t="n">
+      <c r="F76" s="15" t="n">
         <v>9221274</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G76" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4731,17 +4731,17 @@
       <c r="B77" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="9"/>
+      <c r="D77" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="16" t="n">
+      <c r="E77" s="15" t="n">
         <v>1807220554</v>
       </c>
-      <c r="F77" s="16" t="n">
+      <c r="F77" s="15" t="n">
         <v>9221275</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G77" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4752,17 +4752,17 @@
       <c r="B78" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="16" t="n">
+      <c r="E78" s="15" t="n">
         <v>1807220555</v>
       </c>
-      <c r="F78" s="16" t="n">
+      <c r="F78" s="15" t="n">
         <v>9221276</v>
       </c>
-      <c r="G78" s="17" t="s">
+      <c r="G78" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4773,17 +4773,17 @@
       <c r="B79" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15" t="s">
+      <c r="C79" s="9"/>
+      <c r="D79" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E79" s="16" t="n">
+      <c r="E79" s="15" t="n">
         <v>1807220556</v>
       </c>
-      <c r="F79" s="16" t="n">
+      <c r="F79" s="15" t="n">
         <v>9221277</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="G79" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4794,17 +4794,17 @@
       <c r="B80" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="9"/>
+      <c r="D80" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="16" t="n">
+      <c r="E80" s="15" t="n">
         <v>1807220557</v>
       </c>
-      <c r="F80" s="16" t="n">
+      <c r="F80" s="15" t="n">
         <v>9221278</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4815,17 +4815,17 @@
       <c r="B81" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15" t="s">
+      <c r="C81" s="9"/>
+      <c r="D81" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E81" s="16" t="n">
+      <c r="E81" s="15" t="n">
         <v>1807220558</v>
       </c>
-      <c r="F81" s="16" t="n">
+      <c r="F81" s="15" t="n">
         <v>9221279</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G81" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4836,17 +4836,17 @@
       <c r="B82" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15" t="s">
+      <c r="C82" s="9"/>
+      <c r="D82" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E82" s="16" t="n">
+      <c r="E82" s="15" t="n">
         <v>1807220559</v>
       </c>
-      <c r="F82" s="16" t="n">
+      <c r="F82" s="15" t="n">
         <v>9221280</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G82" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4857,17 +4857,17 @@
       <c r="B83" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15" t="s">
+      <c r="C83" s="9"/>
+      <c r="D83" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="16" t="n">
+      <c r="E83" s="15" t="n">
         <v>1807220560</v>
       </c>
-      <c r="F83" s="16" t="n">
+      <c r="F83" s="15" t="n">
         <v>9221341</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4878,17 +4878,17 @@
       <c r="B84" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15" t="s">
+      <c r="C84" s="9"/>
+      <c r="D84" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E84" s="16" t="n">
+      <c r="E84" s="15" t="n">
         <v>1807220411</v>
       </c>
-      <c r="F84" s="16" t="n">
+      <c r="F84" s="15" t="n">
         <v>9221342</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4899,17 +4899,17 @@
       <c r="B85" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15" t="s">
+      <c r="C85" s="9"/>
+      <c r="D85" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="16" t="n">
+      <c r="E85" s="15" t="n">
         <v>1807220412</v>
       </c>
-      <c r="F85" s="16" t="n">
+      <c r="F85" s="15" t="n">
         <v>9221343</v>
       </c>
-      <c r="G85" s="17" t="s">
+      <c r="G85" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4920,17 +4920,17 @@
       <c r="B86" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="9"/>
+      <c r="D86" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="16" t="n">
+      <c r="E86" s="15" t="n">
         <v>1807220413</v>
       </c>
-      <c r="F86" s="16" t="n">
+      <c r="F86" s="15" t="n">
         <v>9221344</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4941,17 +4941,17 @@
       <c r="B87" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="9"/>
+      <c r="D87" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E87" s="16" t="n">
+      <c r="E87" s="15" t="n">
         <v>1807220414</v>
       </c>
-      <c r="F87" s="16" t="n">
+      <c r="F87" s="15" t="n">
         <v>9221345</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4962,17 +4962,17 @@
       <c r="B88" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15" t="s">
+      <c r="C88" s="9"/>
+      <c r="D88" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="16" t="n">
+      <c r="E88" s="15" t="n">
         <v>1807220415</v>
       </c>
-      <c r="F88" s="16" t="n">
+      <c r="F88" s="15" t="n">
         <v>9221346</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4983,17 +4983,17 @@
       <c r="B89" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15" t="s">
+      <c r="C89" s="9"/>
+      <c r="D89" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E89" s="16" t="n">
+      <c r="E89" s="15" t="n">
         <v>1807220416</v>
       </c>
-      <c r="F89" s="16" t="n">
+      <c r="F89" s="15" t="n">
         <v>9221347</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5004,17 +5004,17 @@
       <c r="B90" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="9"/>
+      <c r="D90" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E90" s="16" t="n">
+      <c r="E90" s="15" t="n">
         <v>1807220417</v>
       </c>
-      <c r="F90" s="16" t="n">
+      <c r="F90" s="15" t="n">
         <v>9221348</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5025,17 +5025,17 @@
       <c r="B91" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15" t="s">
+      <c r="C91" s="9"/>
+      <c r="D91" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E91" s="16" t="n">
+      <c r="E91" s="15" t="n">
         <v>1807220418</v>
       </c>
-      <c r="F91" s="16" t="n">
+      <c r="F91" s="15" t="n">
         <v>9221349</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5046,17 +5046,17 @@
       <c r="B92" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15" t="s">
+      <c r="C92" s="9"/>
+      <c r="D92" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E92" s="16" t="n">
+      <c r="E92" s="15" t="n">
         <v>1807220419</v>
       </c>
-      <c r="F92" s="16" t="n">
+      <c r="F92" s="15" t="n">
         <v>9221350</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5067,17 +5067,17 @@
       <c r="B93" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="15" t="s">
+      <c r="C93" s="9"/>
+      <c r="D93" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E93" s="16" t="n">
+      <c r="E93" s="15" t="n">
         <v>1807220420</v>
       </c>
-      <c r="F93" s="16" t="n">
+      <c r="F93" s="15" t="n">
         <v>9221361</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5088,17 +5088,17 @@
       <c r="B94" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="15" t="s">
+      <c r="C94" s="9"/>
+      <c r="D94" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E94" s="16" t="n">
+      <c r="E94" s="15" t="n">
         <v>1807220105</v>
       </c>
-      <c r="F94" s="18" t="n">
+      <c r="F94" s="17" t="n">
         <v>9221356</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5109,17 +5109,17 @@
       <c r="B95" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="15" t="s">
+      <c r="C95" s="9"/>
+      <c r="D95" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E95" s="16" t="n">
+      <c r="E95" s="15" t="n">
         <v>1807220150</v>
       </c>
-      <c r="F95" s="16" t="n">
+      <c r="F95" s="15" t="n">
         <v>9221362</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5130,17 +5130,17 @@
       <c r="B96" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="15" t="s">
+      <c r="C96" s="9"/>
+      <c r="D96" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E96" s="16" t="n">
+      <c r="E96" s="15" t="n">
         <v>1807220149</v>
       </c>
-      <c r="F96" s="16" t="n">
+      <c r="F96" s="15" t="n">
         <v>9221363</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5151,17 +5151,17 @@
       <c r="B97" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="15" t="s">
+      <c r="C97" s="9"/>
+      <c r="D97" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E97" s="16" t="n">
+      <c r="E97" s="15" t="n">
         <v>1807220144</v>
       </c>
-      <c r="F97" s="16" t="n">
+      <c r="F97" s="15" t="n">
         <v>9221368</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="G97" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5172,17 +5172,17 @@
       <c r="B98" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15" t="s">
+      <c r="C98" s="9"/>
+      <c r="D98" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E98" s="16" t="n">
+      <c r="E98" s="15" t="n">
         <v>1807220146</v>
       </c>
-      <c r="F98" s="16" t="n">
+      <c r="F98" s="15" t="n">
         <v>9221366</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G98" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5193,17 +5193,17 @@
       <c r="B99" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="15" t="s">
+      <c r="C99" s="9"/>
+      <c r="D99" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E99" s="16" t="n">
+      <c r="E99" s="15" t="n">
         <v>1807220147</v>
       </c>
-      <c r="F99" s="16" t="n">
+      <c r="F99" s="15" t="n">
         <v>9221365</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5214,17 +5214,17 @@
       <c r="B100" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15" t="s">
+      <c r="C100" s="9"/>
+      <c r="D100" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E100" s="16" t="n">
+      <c r="E100" s="15" t="n">
         <v>1807220148</v>
       </c>
-      <c r="F100" s="16" t="n">
+      <c r="F100" s="15" t="n">
         <v>9221364</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G100" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5232,10 +5232,10 @@
       <c r="A101" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="20" t="n">
+      <c r="B101" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C101" s="21"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="30" t="s">
         <v>109</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="F101" s="31" t="n">
         <v>9221396</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5253,10 +5253,10 @@
       <c r="A102" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="25" t="n">
+      <c r="B102" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="C102" s="26"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="32" t="s">
         <v>110</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="F102" s="33" t="n">
         <v>9221479</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5277,17 +5277,17 @@
       <c r="B103" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="15" t="s">
+      <c r="C103" s="9"/>
+      <c r="D103" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E103" s="18" t="n">
+      <c r="E103" s="17" t="n">
         <v>1807220506</v>
       </c>
-      <c r="F103" s="18" t="n">
+      <c r="F103" s="17" t="n">
         <v>9221247</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5298,17 +5298,17 @@
       <c r="B104" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="15" t="s">
+      <c r="C104" s="9"/>
+      <c r="D104" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E104" s="18" t="n">
+      <c r="E104" s="17" t="n">
         <v>1807220143</v>
       </c>
       <c r="F104" s="13" t="n">
         <v>9221369</v>
       </c>
-      <c r="G104" s="17" t="s">
+      <c r="G104" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5319,17 +5319,17 @@
       <c r="B105" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="15" t="s">
+      <c r="C105" s="9"/>
+      <c r="D105" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E105" s="18" t="n">
+      <c r="E105" s="17" t="n">
         <v>1807220507</v>
       </c>
-      <c r="F105" s="18" t="n">
+      <c r="F105" s="17" t="n">
         <v>9221245</v>
       </c>
-      <c r="G105" s="17" t="s">
+      <c r="G105" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5340,17 +5340,17 @@
       <c r="B106" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="15" t="s">
+      <c r="C106" s="9"/>
+      <c r="D106" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E106" s="18" t="n">
+      <c r="E106" s="17" t="n">
         <v>1807220511</v>
       </c>
-      <c r="F106" s="18" t="n">
+      <c r="F106" s="17" t="n">
         <v>9221418</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G106" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5361,17 +5361,17 @@
       <c r="B107" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="15" t="s">
+      <c r="C107" s="9"/>
+      <c r="D107" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="18" t="n">
+      <c r="E107" s="17" t="n">
         <v>1807220529</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="F107" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5382,17 +5382,17 @@
       <c r="B108" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="15" t="s">
+      <c r="C108" s="9"/>
+      <c r="D108" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E108" s="18" t="n">
+      <c r="E108" s="17" t="n">
         <v>1807220514</v>
       </c>
-      <c r="F108" s="18" t="n">
+      <c r="F108" s="17" t="n">
         <v>9221478</v>
       </c>
-      <c r="G108" s="17" t="s">
+      <c r="G108" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5403,17 +5403,17 @@
       <c r="B109" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C109" s="14"/>
-      <c r="D109" s="15" t="s">
+      <c r="C109" s="9"/>
+      <c r="D109" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="18" t="n">
+      <c r="E109" s="17" t="n">
         <v>1807220530</v>
       </c>
-      <c r="F109" s="18" t="n">
+      <c r="F109" s="17" t="n">
         <v>9221419</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5424,17 +5424,17 @@
       <c r="B110" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="15" t="s">
+      <c r="C110" s="9"/>
+      <c r="D110" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="16" t="n">
+      <c r="E110" s="15" t="n">
         <v>1807220518</v>
       </c>
-      <c r="F110" s="18" t="n">
+      <c r="F110" s="17" t="n">
         <v>9221474</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5445,17 +5445,17 @@
       <c r="B111" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="15" t="s">
+      <c r="C111" s="9"/>
+      <c r="D111" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E111" s="16" t="n">
+      <c r="E111" s="15" t="n">
         <v>1807220519</v>
       </c>
-      <c r="F111" s="18" t="n">
+      <c r="F111" s="17" t="n">
         <v>9221473</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5466,17 +5466,17 @@
       <c r="B112" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="15" t="s">
+      <c r="C112" s="9"/>
+      <c r="D112" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E112" s="16" t="n">
+      <c r="E112" s="15" t="n">
         <v>1807220140</v>
       </c>
-      <c r="F112" s="16" t="n">
+      <c r="F112" s="15" t="n">
         <v>9221390</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G112" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5487,17 +5487,17 @@
       <c r="B113" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="15" t="s">
+      <c r="C113" s="9"/>
+      <c r="D113" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="16" t="n">
+      <c r="E113" s="15" t="n">
         <v>1807220121</v>
       </c>
-      <c r="F113" s="16" t="n">
+      <c r="F113" s="15" t="n">
         <v>9221389</v>
       </c>
-      <c r="G113" s="17" t="s">
+      <c r="G113" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5508,17 +5508,17 @@
       <c r="B114" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="15" t="s">
+      <c r="C114" s="9"/>
+      <c r="D114" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E114" s="16" t="n">
+      <c r="E114" s="15" t="n">
         <v>1807220122</v>
       </c>
-      <c r="F114" s="16" t="n">
+      <c r="F114" s="15" t="n">
         <v>9221451</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G114" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5529,17 +5529,17 @@
       <c r="B115" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15" t="s">
+      <c r="C115" s="9"/>
+      <c r="D115" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="16" t="n">
+      <c r="E115" s="15" t="n">
         <v>1807220123</v>
       </c>
-      <c r="F115" s="16" t="n">
+      <c r="F115" s="15" t="n">
         <v>9221452</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G115" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5550,17 +5550,17 @@
       <c r="B116" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="15" t="s">
+      <c r="C116" s="9"/>
+      <c r="D116" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="16" t="n">
+      <c r="E116" s="15" t="n">
         <v>1807220124</v>
       </c>
-      <c r="F116" s="16" t="n">
+      <c r="F116" s="15" t="n">
         <v>9221453</v>
       </c>
-      <c r="G116" s="17" t="s">
+      <c r="G116" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5571,17 +5571,17 @@
       <c r="B117" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="15" t="s">
+      <c r="C117" s="9"/>
+      <c r="D117" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E117" s="16" t="n">
+      <c r="E117" s="15" t="n">
         <v>1807220125</v>
       </c>
-      <c r="F117" s="16" t="n">
+      <c r="F117" s="15" t="n">
         <v>9221455</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5592,17 +5592,17 @@
       <c r="B118" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="15" t="s">
+      <c r="C118" s="9"/>
+      <c r="D118" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E118" s="16" t="n">
+      <c r="E118" s="15" t="n">
         <v>1807220126</v>
       </c>
-      <c r="F118" s="16" t="n">
+      <c r="F118" s="15" t="n">
         <v>9221454</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G118" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5613,17 +5613,17 @@
       <c r="B119" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15" t="s">
+      <c r="C119" s="9"/>
+      <c r="D119" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="16" t="n">
+      <c r="E119" s="15" t="n">
         <v>1807220127</v>
       </c>
-      <c r="F119" s="16" t="n">
+      <c r="F119" s="15" t="n">
         <v>9221457</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5634,17 +5634,17 @@
       <c r="B120" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15" t="s">
+      <c r="C120" s="9"/>
+      <c r="D120" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E120" s="16" t="n">
+      <c r="E120" s="15" t="n">
         <v>1807220128</v>
       </c>
-      <c r="F120" s="16" t="n">
+      <c r="F120" s="15" t="n">
         <v>9221456</v>
       </c>
-      <c r="G120" s="17" t="s">
+      <c r="G120" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5655,17 +5655,17 @@
       <c r="B121" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="15" t="s">
+      <c r="C121" s="9"/>
+      <c r="D121" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E121" s="16" t="n">
+      <c r="E121" s="15" t="n">
         <v>1807220129</v>
       </c>
-      <c r="F121" s="16" t="n">
+      <c r="F121" s="15" t="n">
         <v>9221458</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5676,17 +5676,17 @@
       <c r="B122" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="15" t="s">
+      <c r="C122" s="9"/>
+      <c r="D122" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="16" t="n">
+      <c r="E122" s="15" t="n">
         <v>1807220130</v>
       </c>
-      <c r="F122" s="16" t="n">
+      <c r="F122" s="15" t="n">
         <v>9221459</v>
       </c>
-      <c r="G122" s="17" t="s">
+      <c r="G122" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5697,17 +5697,17 @@
       <c r="B123" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="15" t="s">
+      <c r="C123" s="9"/>
+      <c r="D123" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E123" s="16" t="n">
+      <c r="E123" s="15" t="n">
         <v>1807220111</v>
       </c>
-      <c r="F123" s="16" t="n">
+      <c r="F123" s="15" t="n">
         <v>9221460</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G123" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5718,17 +5718,17 @@
       <c r="B124" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="15" t="s">
+      <c r="C124" s="9"/>
+      <c r="D124" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E124" s="16" t="n">
+      <c r="E124" s="15" t="n">
         <v>1807220112</v>
       </c>
-      <c r="F124" s="16" t="n">
+      <c r="F124" s="15" t="n">
         <v>9221328</v>
       </c>
-      <c r="G124" s="17" t="s">
+      <c r="G124" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5739,17 +5739,17 @@
       <c r="B125" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="15" t="s">
+      <c r="C125" s="9"/>
+      <c r="D125" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E125" s="16" t="n">
+      <c r="E125" s="15" t="n">
         <v>1807220113</v>
       </c>
-      <c r="F125" s="16" t="n">
+      <c r="F125" s="15" t="n">
         <v>9221329</v>
       </c>
-      <c r="G125" s="17" t="s">
+      <c r="G125" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5760,17 +5760,17 @@
       <c r="B126" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15" t="s">
+      <c r="C126" s="9"/>
+      <c r="D126" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E126" s="16" t="n">
+      <c r="E126" s="15" t="n">
         <v>1807220114</v>
       </c>
-      <c r="F126" s="16" t="n">
+      <c r="F126" s="15" t="n">
         <v>9221324</v>
       </c>
-      <c r="G126" s="17" t="s">
+      <c r="G126" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5781,17 +5781,17 @@
       <c r="B127" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="15" t="s">
+      <c r="C127" s="9"/>
+      <c r="D127" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E127" s="16" t="n">
+      <c r="E127" s="15" t="n">
         <v>1807220115</v>
       </c>
-      <c r="F127" s="16" t="n">
+      <c r="F127" s="15" t="n">
         <v>9221330</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5802,17 +5802,17 @@
       <c r="B128" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="15" t="s">
+      <c r="C128" s="9"/>
+      <c r="D128" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E128" s="16" t="n">
+      <c r="E128" s="15" t="n">
         <v>1807220117</v>
       </c>
-      <c r="F128" s="16" t="n">
+      <c r="F128" s="15" t="n">
         <v>9221325</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G128" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5823,17 +5823,17 @@
       <c r="B129" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="15" t="s">
+      <c r="C129" s="9"/>
+      <c r="D129" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E129" s="16" t="n">
+      <c r="E129" s="15" t="n">
         <v>1807220118</v>
       </c>
-      <c r="F129" s="16" t="n">
+      <c r="F129" s="15" t="n">
         <v>9221326</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="G129" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5844,17 +5844,17 @@
       <c r="B130" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="15" t="s">
+      <c r="C130" s="9"/>
+      <c r="D130" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E130" s="16" t="n">
+      <c r="E130" s="15" t="n">
         <v>1807220116</v>
       </c>
-      <c r="F130" s="16" t="n">
+      <c r="F130" s="15" t="n">
         <v>9221321</v>
       </c>
-      <c r="G130" s="17" t="s">
+      <c r="G130" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5865,17 +5865,17 @@
       <c r="B131" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C131" s="14"/>
-      <c r="D131" s="15" t="s">
+      <c r="C131" s="9"/>
+      <c r="D131" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E131" s="16" t="n">
+      <c r="E131" s="15" t="n">
         <v>1807220119</v>
       </c>
-      <c r="F131" s="16" t="n">
+      <c r="F131" s="15" t="n">
         <v>9221322</v>
       </c>
-      <c r="G131" s="17" t="s">
+      <c r="G131" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5886,17 +5886,17 @@
       <c r="B132" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="15" t="s">
+      <c r="C132" s="9"/>
+      <c r="D132" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E132" s="16" t="n">
+      <c r="E132" s="15" t="n">
         <v>1807220120</v>
       </c>
-      <c r="F132" s="16" t="n">
+      <c r="F132" s="15" t="n">
         <v>9221323</v>
       </c>
-      <c r="G132" s="17" t="s">
+      <c r="G132" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5907,17 +5907,17 @@
       <c r="B133" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C133" s="14"/>
-      <c r="D133" s="15" t="s">
+      <c r="C133" s="9"/>
+      <c r="D133" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E133" s="16" t="n">
+      <c r="E133" s="15" t="n">
         <v>1807220521</v>
       </c>
-      <c r="F133" s="16" t="n">
+      <c r="F133" s="15" t="n">
         <v>10220194</v>
       </c>
-      <c r="G133" s="17" t="s">
+      <c r="G133" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5928,17 +5928,17 @@
       <c r="B134" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="15" t="s">
+      <c r="C134" s="9"/>
+      <c r="D134" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E134" s="16" t="n">
+      <c r="E134" s="15" t="n">
         <v>1807220522</v>
       </c>
-      <c r="F134" s="16" t="n">
+      <c r="F134" s="15" t="n">
         <v>9221411</v>
       </c>
-      <c r="G134" s="17" t="s">
+      <c r="G134" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5949,17 +5949,17 @@
       <c r="B135" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C135" s="14"/>
-      <c r="D135" s="15" t="s">
+      <c r="C135" s="9"/>
+      <c r="D135" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E135" s="16" t="n">
+      <c r="E135" s="15" t="n">
         <v>1807220523</v>
       </c>
-      <c r="F135" s="16" t="n">
+      <c r="F135" s="15" t="n">
         <v>9221414</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G135" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5970,17 +5970,17 @@
       <c r="B136" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="15" t="s">
+      <c r="C136" s="9"/>
+      <c r="D136" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E136" s="16" t="n">
+      <c r="E136" s="15" t="n">
         <v>1807220524</v>
       </c>
-      <c r="F136" s="16" t="n">
+      <c r="F136" s="15" t="n">
         <v>9221412</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G136" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5991,17 +5991,17 @@
       <c r="B137" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C137" s="14"/>
-      <c r="D137" s="15" t="s">
+      <c r="C137" s="9"/>
+      <c r="D137" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E137" s="16" t="n">
+      <c r="E137" s="15" t="n">
         <v>1807220525</v>
       </c>
-      <c r="F137" s="16" t="n">
+      <c r="F137" s="15" t="n">
         <v>9221415</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G137" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6012,17 +6012,17 @@
       <c r="B138" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="15" t="s">
+      <c r="C138" s="9"/>
+      <c r="D138" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E138" s="16" t="n">
+      <c r="E138" s="15" t="n">
         <v>1807220526</v>
       </c>
-      <c r="F138" s="16" t="n">
+      <c r="F138" s="15" t="n">
         <v>9221413</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G138" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6033,17 +6033,17 @@
       <c r="B139" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="15" t="s">
+      <c r="C139" s="9"/>
+      <c r="D139" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E139" s="16" t="n">
+      <c r="E139" s="15" t="n">
         <v>1807220527</v>
       </c>
-      <c r="F139" s="16" t="n">
+      <c r="F139" s="15" t="n">
         <v>9221416</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6054,17 +6054,17 @@
       <c r="B140" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="15" t="s">
+      <c r="C140" s="9"/>
+      <c r="D140" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E140" s="16" t="n">
+      <c r="E140" s="15" t="n">
         <v>1807220515</v>
       </c>
-      <c r="F140" s="18" t="n">
+      <c r="F140" s="17" t="n">
         <v>9221477</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6075,17 +6075,17 @@
       <c r="B141" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="15" t="s">
+      <c r="C141" s="9"/>
+      <c r="D141" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E141" s="16" t="n">
+      <c r="E141" s="15" t="n">
         <v>1807220080</v>
       </c>
-      <c r="F141" s="18" t="n">
+      <c r="F141" s="17" t="n">
         <v>9221380</v>
       </c>
-      <c r="G141" s="17" t="s">
+      <c r="G141" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6096,17 +6096,17 @@
       <c r="B142" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="15" t="s">
+      <c r="C142" s="9"/>
+      <c r="D142" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E142" s="16" t="n">
+      <c r="E142" s="15" t="n">
         <v>1807220512</v>
       </c>
-      <c r="F142" s="18" t="n">
+      <c r="F142" s="17" t="n">
         <v>9221480</v>
       </c>
-      <c r="G142" s="17" t="s">
+      <c r="G142" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6117,17 +6117,17 @@
       <c r="B143" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="15" t="s">
+      <c r="C143" s="9"/>
+      <c r="D143" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E143" s="16" t="n">
+      <c r="E143" s="15" t="n">
         <v>1807220431</v>
       </c>
-      <c r="F143" s="18" t="s">
+      <c r="F143" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G143" s="17" t="s">
+      <c r="G143" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6138,17 +6138,17 @@
       <c r="B144" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C144" s="14"/>
-      <c r="D144" s="15" t="s">
+      <c r="C144" s="9"/>
+      <c r="D144" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E144" s="16" t="n">
+      <c r="E144" s="15" t="n">
         <v>1807220520</v>
       </c>
-      <c r="F144" s="18" t="n">
+      <c r="F144" s="17" t="n">
         <v>9221472</v>
       </c>
-      <c r="G144" s="17" t="s">
+      <c r="G144" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6159,17 +6159,17 @@
       <c r="B145" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="15" t="s">
+      <c r="C145" s="9"/>
+      <c r="D145" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E145" s="16" t="n">
+      <c r="E145" s="15" t="n">
         <v>1807220095</v>
       </c>
-      <c r="F145" s="18" t="n">
+      <c r="F145" s="17" t="n">
         <v>9221429</v>
       </c>
-      <c r="G145" s="17" t="s">
+      <c r="G145" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6180,17 +6180,17 @@
       <c r="B146" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C146" s="14"/>
-      <c r="D146" s="15" t="s">
+      <c r="C146" s="9"/>
+      <c r="D146" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E146" s="16" t="n">
+      <c r="E146" s="15" t="n">
         <v>1807220516</v>
       </c>
-      <c r="F146" s="18" t="n">
+      <c r="F146" s="17" t="n">
         <v>9221476</v>
       </c>
-      <c r="G146" s="17" t="s">
+      <c r="G146" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6201,17 +6201,17 @@
       <c r="B147" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C147" s="14"/>
-      <c r="D147" s="15" t="s">
+      <c r="C147" s="9"/>
+      <c r="D147" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E147" s="16" t="n">
+      <c r="E147" s="15" t="n">
         <v>1807220517</v>
       </c>
-      <c r="F147" s="18" t="n">
+      <c r="F147" s="17" t="n">
         <v>9221475</v>
       </c>
-      <c r="G147" s="17" t="s">
+      <c r="G147" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6222,17 +6222,17 @@
       <c r="B148" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="15" t="s">
+      <c r="C148" s="9"/>
+      <c r="D148" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E148" s="16" t="n">
+      <c r="E148" s="15" t="n">
         <v>1807220528</v>
       </c>
-      <c r="F148" s="16" t="n">
+      <c r="F148" s="15" t="n">
         <v>9221417</v>
       </c>
-      <c r="G148" s="17" t="s">
+      <c r="G148" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       <c r="B149" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C149" s="14"/>
+      <c r="C149" s="9"/>
       <c r="D149" s="34" t="s">
         <v>159</v>
       </c>
@@ -6253,7 +6253,7 @@
       <c r="F149" s="35" t="n">
         <v>9221397</v>
       </c>
-      <c r="G149" s="17" t="s">
+      <c r="G149" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6261,10 +6261,10 @@
       <c r="A150" s="7" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="20" t="n">
+      <c r="B150" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C150" s="21"/>
+      <c r="C150" s="20"/>
       <c r="D150" s="30" t="s">
         <v>160</v>
       </c>
@@ -6274,7 +6274,7 @@
       <c r="F150" s="31" t="n">
         <v>9221425</v>
       </c>
-      <c r="G150" s="24" t="s">
+      <c r="G150" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6282,10 +6282,10 @@
       <c r="A151" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="25" t="n">
+      <c r="B151" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="C151" s="26"/>
+      <c r="C151" s="25"/>
       <c r="D151" s="32" t="s">
         <v>161</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="F151" s="36" t="n">
         <v>9221370</v>
       </c>
-      <c r="G151" s="29" t="s">
+      <c r="G151" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6306,17 +6306,17 @@
       <c r="B152" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="15" t="s">
+      <c r="C152" s="9"/>
+      <c r="D152" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E152" s="16" t="n">
+      <c r="E152" s="15" t="n">
         <v>1807220141</v>
       </c>
-      <c r="F152" s="16" t="n">
+      <c r="F152" s="15" t="n">
         <v>9221436</v>
       </c>
-      <c r="G152" s="17" t="s">
+      <c r="G152" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6327,17 +6327,17 @@
       <c r="B153" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="15" t="s">
+      <c r="C153" s="9"/>
+      <c r="D153" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E153" s="16" t="n">
+      <c r="E153" s="15" t="n">
         <v>1807220061</v>
       </c>
-      <c r="F153" s="16" t="n">
+      <c r="F153" s="15" t="n">
         <v>9221437</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="G153" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6348,17 +6348,17 @@
       <c r="B154" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C154" s="14"/>
-      <c r="D154" s="15" t="s">
+      <c r="C154" s="9"/>
+      <c r="D154" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E154" s="16" t="n">
+      <c r="E154" s="15" t="n">
         <v>1807220062</v>
       </c>
-      <c r="F154" s="16" t="n">
+      <c r="F154" s="15" t="n">
         <v>9221438</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="G154" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6369,17 +6369,17 @@
       <c r="B155" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C155" s="14"/>
-      <c r="D155" s="15" t="s">
+      <c r="C155" s="9"/>
+      <c r="D155" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E155" s="16" t="n">
+      <c r="E155" s="15" t="n">
         <v>1807220063</v>
       </c>
-      <c r="F155" s="16" t="n">
+      <c r="F155" s="15" t="n">
         <v>9221432</v>
       </c>
-      <c r="G155" s="17" t="s">
+      <c r="G155" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6390,17 +6390,17 @@
       <c r="B156" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="15" t="s">
+      <c r="C156" s="9"/>
+      <c r="D156" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E156" s="16" t="n">
+      <c r="E156" s="15" t="n">
         <v>1807220064</v>
       </c>
-      <c r="F156" s="16" t="n">
+      <c r="F156" s="15" t="n">
         <v>9221435</v>
       </c>
-      <c r="G156" s="17" t="s">
+      <c r="G156" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6411,17 +6411,17 @@
       <c r="B157" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="15" t="s">
+      <c r="C157" s="9"/>
+      <c r="D157" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E157" s="16" t="n">
+      <c r="E157" s="15" t="n">
         <v>1807220065</v>
       </c>
-      <c r="F157" s="16" t="n">
+      <c r="F157" s="15" t="n">
         <v>9221439</v>
       </c>
-      <c r="G157" s="17" t="s">
+      <c r="G157" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6432,17 +6432,17 @@
       <c r="B158" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C158" s="14"/>
-      <c r="D158" s="15" t="s">
+      <c r="C158" s="9"/>
+      <c r="D158" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E158" s="16" t="n">
+      <c r="E158" s="15" t="n">
         <v>1807220066</v>
       </c>
-      <c r="F158" s="16" t="n">
+      <c r="F158" s="15" t="n">
         <v>9221440</v>
       </c>
-      <c r="G158" s="17" t="s">
+      <c r="G158" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6453,17 +6453,17 @@
       <c r="B159" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="15" t="s">
+      <c r="C159" s="9"/>
+      <c r="D159" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E159" s="16" t="n">
+      <c r="E159" s="15" t="n">
         <v>1807220067</v>
       </c>
-      <c r="F159" s="16" t="n">
+      <c r="F159" s="15" t="n">
         <v>9221431</v>
       </c>
-      <c r="G159" s="17" t="s">
+      <c r="G159" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6474,17 +6474,17 @@
       <c r="B160" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="15" t="s">
+      <c r="C160" s="9"/>
+      <c r="D160" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E160" s="16" t="n">
+      <c r="E160" s="15" t="n">
         <v>1807220068</v>
       </c>
-      <c r="F160" s="16" t="n">
+      <c r="F160" s="15" t="n">
         <v>9221433</v>
       </c>
-      <c r="G160" s="17" t="s">
+      <c r="G160" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6495,17 +6495,17 @@
       <c r="B161" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="15" t="s">
+      <c r="C161" s="9"/>
+      <c r="D161" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E161" s="16" t="n">
+      <c r="E161" s="15" t="n">
         <v>1807220069</v>
       </c>
-      <c r="F161" s="16" t="n">
+      <c r="F161" s="15" t="n">
         <v>9221434</v>
       </c>
-      <c r="G161" s="17" t="s">
+      <c r="G161" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6516,17 +6516,17 @@
       <c r="B162" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="15" t="s">
+      <c r="C162" s="9"/>
+      <c r="D162" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="E162" s="16" t="n">
+      <c r="E162" s="15" t="n">
         <v>1807220070</v>
       </c>
-      <c r="F162" s="16" t="n">
+      <c r="F162" s="15" t="n">
         <v>9221461</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="G162" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6537,17 +6537,17 @@
       <c r="B163" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="15" t="s">
+      <c r="C163" s="9"/>
+      <c r="D163" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E163" s="16" t="n">
+      <c r="E163" s="15" t="n">
         <v>1807220051</v>
       </c>
-      <c r="F163" s="16" t="n">
+      <c r="F163" s="15" t="n">
         <v>9221462</v>
       </c>
-      <c r="G163" s="17" t="s">
+      <c r="G163" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6558,17 +6558,17 @@
       <c r="B164" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="15" t="s">
+      <c r="C164" s="9"/>
+      <c r="D164" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E164" s="16" t="n">
+      <c r="E164" s="15" t="n">
         <v>1807220052</v>
       </c>
-      <c r="F164" s="16" t="n">
+      <c r="F164" s="15" t="n">
         <v>9221463</v>
       </c>
-      <c r="G164" s="17" t="s">
+      <c r="G164" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6579,17 +6579,17 @@
       <c r="B165" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C165" s="14"/>
-      <c r="D165" s="15" t="s">
+      <c r="C165" s="9"/>
+      <c r="D165" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="16" t="n">
+      <c r="E165" s="15" t="n">
         <v>1807220053</v>
       </c>
-      <c r="F165" s="16" t="n">
+      <c r="F165" s="15" t="n">
         <v>9221464</v>
       </c>
-      <c r="G165" s="17" t="s">
+      <c r="G165" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6600,17 +6600,17 @@
       <c r="B166" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C166" s="14"/>
-      <c r="D166" s="15" t="s">
+      <c r="C166" s="9"/>
+      <c r="D166" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E166" s="16" t="n">
+      <c r="E166" s="15" t="n">
         <v>1807220054</v>
       </c>
-      <c r="F166" s="16" t="n">
+      <c r="F166" s="15" t="n">
         <v>9221465</v>
       </c>
-      <c r="G166" s="17" t="s">
+      <c r="G166" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6621,17 +6621,17 @@
       <c r="B167" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C167" s="14"/>
-      <c r="D167" s="15" t="s">
+      <c r="C167" s="9"/>
+      <c r="D167" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E167" s="16" t="n">
+      <c r="E167" s="15" t="n">
         <v>1807220055</v>
       </c>
-      <c r="F167" s="16" t="n">
+      <c r="F167" s="15" t="n">
         <v>9221466</v>
       </c>
-      <c r="G167" s="17" t="s">
+      <c r="G167" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6642,17 +6642,17 @@
       <c r="B168" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C168" s="14"/>
-      <c r="D168" s="15" t="s">
+      <c r="C168" s="9"/>
+      <c r="D168" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E168" s="16" t="n">
+      <c r="E168" s="15" t="n">
         <v>1807220056</v>
       </c>
-      <c r="F168" s="16" t="n">
+      <c r="F168" s="15" t="n">
         <v>9221467</v>
       </c>
-      <c r="G168" s="17" t="s">
+      <c r="G168" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6663,17 +6663,17 @@
       <c r="B169" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C169" s="14"/>
-      <c r="D169" s="15" t="s">
+      <c r="C169" s="9"/>
+      <c r="D169" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E169" s="16" t="n">
+      <c r="E169" s="15" t="n">
         <v>1807220057</v>
       </c>
-      <c r="F169" s="16" t="n">
+      <c r="F169" s="15" t="n">
         <v>9221468</v>
       </c>
-      <c r="G169" s="17" t="s">
+      <c r="G169" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6684,17 +6684,17 @@
       <c r="B170" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C170" s="14"/>
-      <c r="D170" s="15" t="s">
+      <c r="C170" s="9"/>
+      <c r="D170" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E170" s="16" t="n">
+      <c r="E170" s="15" t="n">
         <v>1807220058</v>
       </c>
-      <c r="F170" s="16" t="s">
+      <c r="F170" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G170" s="17" t="s">
+      <c r="G170" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6705,17 +6705,17 @@
       <c r="B171" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C171" s="14"/>
-      <c r="D171" s="15" t="s">
+      <c r="C171" s="9"/>
+      <c r="D171" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E171" s="16" t="n">
+      <c r="E171" s="15" t="n">
         <v>1807220059</v>
       </c>
-      <c r="F171" s="16" t="n">
+      <c r="F171" s="15" t="n">
         <v>9221470</v>
       </c>
-      <c r="G171" s="17" t="s">
+      <c r="G171" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6726,17 +6726,17 @@
       <c r="B172" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C172" s="14"/>
-      <c r="D172" s="15" t="s">
+      <c r="C172" s="9"/>
+      <c r="D172" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E172" s="16" t="n">
+      <c r="E172" s="15" t="n">
         <v>1807220060</v>
       </c>
-      <c r="F172" s="16" t="n">
+      <c r="F172" s="15" t="n">
         <v>9221450</v>
       </c>
-      <c r="G172" s="17" t="s">
+      <c r="G172" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6747,17 +6747,17 @@
       <c r="B173" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C173" s="14"/>
-      <c r="D173" s="15" t="s">
+      <c r="C173" s="9"/>
+      <c r="D173" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E173" s="16" t="n">
+      <c r="E173" s="15" t="n">
         <v>1807220441</v>
       </c>
-      <c r="F173" s="16" t="n">
+      <c r="F173" s="15" t="n">
         <v>9221449</v>
       </c>
-      <c r="G173" s="17" t="s">
+      <c r="G173" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6768,17 +6768,17 @@
       <c r="B174" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C174" s="14"/>
-      <c r="D174" s="15" t="s">
+      <c r="C174" s="9"/>
+      <c r="D174" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E174" s="16" t="n">
+      <c r="E174" s="15" t="n">
         <v>1807220442</v>
       </c>
-      <c r="F174" s="16" t="n">
+      <c r="F174" s="15" t="n">
         <v>9221448</v>
       </c>
-      <c r="G174" s="17" t="s">
+      <c r="G174" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6789,17 +6789,17 @@
       <c r="B175" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C175" s="14"/>
-      <c r="D175" s="15" t="s">
+      <c r="C175" s="9"/>
+      <c r="D175" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E175" s="16" t="n">
+      <c r="E175" s="15" t="n">
         <v>1807220443</v>
       </c>
-      <c r="F175" s="16" t="n">
+      <c r="F175" s="15" t="n">
         <v>9221447</v>
       </c>
-      <c r="G175" s="17" t="s">
+      <c r="G175" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6810,17 +6810,17 @@
       <c r="B176" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C176" s="14"/>
-      <c r="D176" s="15" t="s">
+      <c r="C176" s="9"/>
+      <c r="D176" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E176" s="16" t="n">
+      <c r="E176" s="15" t="n">
         <v>1807220444</v>
       </c>
-      <c r="F176" s="16" t="n">
+      <c r="F176" s="15" t="n">
         <v>9221446</v>
       </c>
-      <c r="G176" s="17" t="s">
+      <c r="G176" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6831,17 +6831,17 @@
       <c r="B177" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C177" s="14"/>
-      <c r="D177" s="15" t="s">
+      <c r="C177" s="9"/>
+      <c r="D177" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E177" s="16" t="n">
+      <c r="E177" s="15" t="n">
         <v>1807220445</v>
       </c>
-      <c r="F177" s="16" t="n">
+      <c r="F177" s="15" t="n">
         <v>9221445</v>
       </c>
-      <c r="G177" s="17" t="s">
+      <c r="G177" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6852,17 +6852,17 @@
       <c r="B178" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C178" s="14"/>
-      <c r="D178" s="15" t="s">
+      <c r="C178" s="9"/>
+      <c r="D178" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E178" s="16" t="n">
+      <c r="E178" s="15" t="n">
         <v>1807220446</v>
       </c>
-      <c r="F178" s="16" t="n">
+      <c r="F178" s="15" t="n">
         <v>9221444</v>
       </c>
-      <c r="G178" s="17" t="s">
+      <c r="G178" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6873,17 +6873,17 @@
       <c r="B179" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C179" s="14"/>
-      <c r="D179" s="15" t="s">
+      <c r="C179" s="9"/>
+      <c r="D179" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E179" s="16" t="n">
+      <c r="E179" s="15" t="n">
         <v>1807220447</v>
       </c>
-      <c r="F179" s="16" t="n">
+      <c r="F179" s="15" t="n">
         <v>9221443</v>
       </c>
-      <c r="G179" s="17" t="s">
+      <c r="G179" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6894,17 +6894,17 @@
       <c r="B180" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C180" s="14"/>
-      <c r="D180" s="15" t="s">
+      <c r="C180" s="9"/>
+      <c r="D180" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E180" s="16" t="n">
+      <c r="E180" s="15" t="n">
         <v>1807220448</v>
       </c>
-      <c r="F180" s="16" t="n">
+      <c r="F180" s="15" t="n">
         <v>9221442</v>
       </c>
-      <c r="G180" s="17" t="s">
+      <c r="G180" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6915,17 +6915,17 @@
       <c r="B181" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C181" s="14"/>
-      <c r="D181" s="15" t="s">
+      <c r="C181" s="9"/>
+      <c r="D181" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E181" s="16" t="n">
+      <c r="E181" s="15" t="n">
         <v>1807220449</v>
       </c>
-      <c r="F181" s="16" t="n">
+      <c r="F181" s="15" t="n">
         <v>9221441</v>
       </c>
-      <c r="G181" s="17" t="s">
+      <c r="G181" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6936,17 +6936,17 @@
       <c r="B182" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C182" s="14"/>
-      <c r="D182" s="15" t="s">
+      <c r="C182" s="9"/>
+      <c r="D182" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E182" s="16" t="n">
+      <c r="E182" s="15" t="n">
         <v>1807220450</v>
       </c>
-      <c r="F182" s="16" t="n">
+      <c r="F182" s="15" t="n">
         <v>9221401</v>
       </c>
-      <c r="G182" s="17" t="s">
+      <c r="G182" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6957,17 +6957,17 @@
       <c r="B183" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C183" s="14"/>
-      <c r="D183" s="15" t="s">
+      <c r="C183" s="9"/>
+      <c r="D183" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E183" s="16" t="n">
+      <c r="E183" s="15" t="n">
         <v>1807220432</v>
       </c>
-      <c r="F183" s="16" t="n">
+      <c r="F183" s="15" t="n">
         <v>9221402</v>
       </c>
-      <c r="G183" s="17" t="s">
+      <c r="G183" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6978,17 +6978,17 @@
       <c r="B184" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C184" s="14"/>
-      <c r="D184" s="15" t="s">
+      <c r="C184" s="9"/>
+      <c r="D184" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E184" s="16" t="n">
+      <c r="E184" s="15" t="n">
         <v>1807220433</v>
       </c>
-      <c r="F184" s="16" t="n">
+      <c r="F184" s="15" t="n">
         <v>9221403</v>
       </c>
-      <c r="G184" s="17" t="s">
+      <c r="G184" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6999,17 +6999,17 @@
       <c r="B185" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C185" s="14"/>
-      <c r="D185" s="15" t="s">
+      <c r="C185" s="9"/>
+      <c r="D185" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E185" s="16" t="n">
+      <c r="E185" s="15" t="n">
         <v>1807220434</v>
       </c>
-      <c r="F185" s="16" t="n">
+      <c r="F185" s="15" t="n">
         <v>9221404</v>
       </c>
-      <c r="G185" s="17" t="s">
+      <c r="G185" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7020,17 +7020,17 @@
       <c r="B186" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C186" s="14"/>
-      <c r="D186" s="15" t="s">
+      <c r="C186" s="9"/>
+      <c r="D186" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E186" s="16" t="n">
+      <c r="E186" s="15" t="n">
         <v>1807220424</v>
       </c>
-      <c r="F186" s="18" t="n">
+      <c r="F186" s="17" t="n">
         <v>9221399</v>
       </c>
-      <c r="G186" s="17" t="s">
+      <c r="G186" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7041,17 +7041,17 @@
       <c r="B187" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C187" s="14"/>
-      <c r="D187" s="15" t="s">
+      <c r="C187" s="9"/>
+      <c r="D187" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E187" s="16" t="n">
+      <c r="E187" s="15" t="n">
         <v>1807220435</v>
       </c>
-      <c r="F187" s="16" t="n">
+      <c r="F187" s="15" t="n">
         <v>9221405</v>
       </c>
-      <c r="G187" s="17" t="s">
+      <c r="G187" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7062,17 +7062,17 @@
       <c r="B188" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C188" s="14"/>
-      <c r="D188" s="15" t="s">
+      <c r="C188" s="9"/>
+      <c r="D188" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E188" s="16" t="n">
+      <c r="E188" s="15" t="n">
         <v>1807220436</v>
       </c>
-      <c r="F188" s="16" t="n">
+      <c r="F188" s="15" t="n">
         <v>9221406</v>
       </c>
-      <c r="G188" s="17" t="s">
+      <c r="G188" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7083,17 +7083,17 @@
       <c r="B189" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C189" s="14"/>
-      <c r="D189" s="15" t="s">
+      <c r="C189" s="9"/>
+      <c r="D189" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E189" s="16" t="n">
+      <c r="E189" s="15" t="n">
         <v>1807220437</v>
       </c>
-      <c r="F189" s="16" t="n">
+      <c r="F189" s="15" t="n">
         <v>9221407</v>
       </c>
-      <c r="G189" s="17" t="s">
+      <c r="G189" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7104,17 +7104,17 @@
       <c r="B190" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C190" s="14"/>
-      <c r="D190" s="15" t="s">
+      <c r="C190" s="9"/>
+      <c r="D190" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E190" s="16" t="n">
+      <c r="E190" s="15" t="n">
         <v>1807220438</v>
       </c>
-      <c r="F190" s="16" t="n">
+      <c r="F190" s="15" t="n">
         <v>9221408</v>
       </c>
-      <c r="G190" s="17" t="s">
+      <c r="G190" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7125,17 +7125,17 @@
       <c r="B191" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C191" s="14"/>
-      <c r="D191" s="15" t="s">
+      <c r="C191" s="9"/>
+      <c r="D191" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E191" s="16" t="n">
+      <c r="E191" s="15" t="n">
         <v>1807220439</v>
       </c>
-      <c r="F191" s="16" t="n">
+      <c r="F191" s="15" t="n">
         <v>9221409</v>
       </c>
-      <c r="G191" s="17" t="s">
+      <c r="G191" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7146,17 +7146,17 @@
       <c r="B192" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C192" s="14"/>
-      <c r="D192" s="15" t="s">
+      <c r="C192" s="9"/>
+      <c r="D192" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E192" s="16" t="n">
+      <c r="E192" s="15" t="n">
         <v>1807220440</v>
       </c>
-      <c r="F192" s="18" t="n">
+      <c r="F192" s="17" t="n">
         <v>9221410</v>
       </c>
-      <c r="G192" s="17" t="s">
+      <c r="G192" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7167,17 +7167,17 @@
       <c r="B193" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C193" s="14"/>
-      <c r="D193" s="15" t="s">
+      <c r="C193" s="9"/>
+      <c r="D193" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E193" s="16" t="n">
+      <c r="E193" s="15" t="n">
         <v>1807220421</v>
       </c>
-      <c r="F193" s="18" t="n">
+      <c r="F193" s="17" t="n">
         <v>9221400</v>
       </c>
-      <c r="G193" s="17" t="s">
+      <c r="G193" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7188,17 +7188,17 @@
       <c r="B194" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C194" s="14"/>
-      <c r="D194" s="15" t="s">
+      <c r="C194" s="9"/>
+      <c r="D194" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E194" s="16" t="n">
+      <c r="E194" s="15" t="n">
         <v>1807220423</v>
       </c>
-      <c r="F194" s="18" t="n">
+      <c r="F194" s="17" t="n">
         <v>9221391</v>
       </c>
-      <c r="G194" s="17" t="s">
+      <c r="G194" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7209,17 +7209,17 @@
       <c r="B195" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C195" s="14"/>
-      <c r="D195" s="15" t="s">
+      <c r="C195" s="9"/>
+      <c r="D195" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E195" s="16" t="n">
+      <c r="E195" s="15" t="n">
         <v>1807220092</v>
       </c>
-      <c r="F195" s="18" t="n">
+      <c r="F195" s="17" t="n">
         <v>9221426</v>
       </c>
-      <c r="G195" s="17" t="s">
+      <c r="G195" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7230,17 +7230,17 @@
       <c r="B196" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C196" s="14"/>
-      <c r="D196" s="15" t="s">
+      <c r="C196" s="9"/>
+      <c r="D196" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E196" s="16" t="n">
+      <c r="E196" s="15" t="n">
         <v>1807220098</v>
       </c>
-      <c r="F196" s="18" t="n">
+      <c r="F196" s="17" t="n">
         <v>9221422</v>
       </c>
-      <c r="G196" s="17" t="s">
+      <c r="G196" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7251,17 +7251,17 @@
       <c r="B197" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C197" s="14"/>
-      <c r="D197" s="15" t="s">
+      <c r="C197" s="9"/>
+      <c r="D197" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E197" s="16" t="n">
+      <c r="E197" s="15" t="n">
         <v>1807220422</v>
       </c>
-      <c r="F197" s="16" t="n">
+      <c r="F197" s="15" t="n">
         <v>9221393</v>
       </c>
-      <c r="G197" s="17" t="s">
+      <c r="G197" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       <c r="B198" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C198" s="14"/>
+      <c r="C198" s="9"/>
       <c r="D198" s="37" t="s">
         <v>209</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="F198" s="35" t="n">
         <v>9221336</v>
       </c>
-      <c r="G198" s="17" t="s">
+      <c r="G198" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       <c r="B199" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C199" s="14"/>
+      <c r="C199" s="9"/>
       <c r="D199" s="37" t="s">
         <v>210</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="F199" s="35" t="n">
         <v>9221421</v>
       </c>
-      <c r="G199" s="17" t="s">
+      <c r="G199" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7311,10 +7311,10 @@
       <c r="A200" s="7" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="20" t="n">
+      <c r="B200" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C200" s="21"/>
+      <c r="C200" s="20"/>
       <c r="D200" s="30" t="s">
         <v>211</v>
       </c>
